--- a/20th Aug Batch/ohe.xlsx
+++ b/20th Aug Batch/ohe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\20th Aug Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07640221-80B2-441A-836A-B9F22D94CED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4891411D-819B-43EB-98A3-A00006F21EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
-  <si>
-    <t>Designation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
   <si>
     <t>intern</t>
   </si>
@@ -39,19 +36,10 @@
     <t>manager</t>
   </si>
   <si>
-    <t>age</t>
+    <t>avp</t>
   </si>
   <si>
-    <t>designation</t>
-  </si>
-  <si>
-    <t>("001")</t>
-  </si>
-  <si>
-    <t>("010")</t>
-  </si>
-  <si>
-    <t>("100")</t>
+    <t>one hot encoding</t>
   </si>
 </sst>
 </file>
@@ -87,8 +75,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A3:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,155 +372,215 @@
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>24</v>
-      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>27</v>
-      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>29</v>
-      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>3</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D6:G6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>